--- a/Docs/source/memory layout.xlsx
+++ b/Docs/source/memory layout.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -468,6 +468,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,15 +501,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -526,15 +535,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -962,7 +962,7 @@
   </sheetPr>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
@@ -991,207 +991,207 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="2">
         <v>13</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="2">
         <v>14</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="2">
         <v>15</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="2">
         <v>16</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="2">
         <v>17</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="20"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="2">
         <v>214</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="20"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="2">
         <v>215</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="6">
@@ -1201,38 +1201,38 @@
         <f>"'T'"</f>
         <v>'T'</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="6">
         <v>217</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="6">
         <v>218</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="6">
         <v>219</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="7">
         <v>220</v>
       </c>
@@ -1240,38 +1240,38 @@
         <f>"'A'"</f>
         <v>'A'</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="7">
         <v>221</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="7">
         <v>222</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="7">
         <v>223</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="3">
         <v>224</v>
       </c>
@@ -1279,155 +1279,144 @@
         <f>"'P'"</f>
         <v>'P'</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="3">
         <v>225</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="35"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="3">
         <v>226</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="32"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="35"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="3">
         <v>227</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="32"/>
+      <c r="D34" s="35"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="3">
         <v>228</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="32"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="35"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="3">
         <v>229</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="32"/>
+      <c r="D36" s="35"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="3">
         <v>230</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="32"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="35"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="3">
         <v>231</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="32"/>
+      <c r="D38" s="35"/>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="3">
         <v>232</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="32"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="35"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="3">
         <v>233</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="35"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="3">
         <v>234</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="1">
         <v>235</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="27"/>
+      <c r="D42" s="30"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="1">
         <v>236</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="1">
         <v>8190</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="1">
         <v>8191</v>
       </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="31"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D4:D13"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C24:C26"/>
     <mergeCell ref="A2:A22"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C21:C22"/>
@@ -1444,6 +1433,17 @@
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D4:D13"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C24:C26"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
